--- a/biology/Botanique/Rhododendron_albiflorum/Rhododendron_albiflorum.xlsx
+++ b/biology/Botanique/Rhododendron_albiflorum/Rhododendron_albiflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Azalée blanche (Rhododendron albiflorum) est une espèce d'arbustes à fleurs de la famille des Ericaceae. C'est l'une des deux espèces de Rhododendron caducs originaires de l’ouest de l’Amérique du Nord. Le second est le Rhododendron occidentale.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce croît dans une zone allant de l’État de l’Oregon jusqu’en Colombie-Britannique. Sa zone d'expansion s'étend à l'est jusque dans l'Alberta et le Montana. Une sous-espèce est également présente dans le Colorado. Elle apprécie tout particulièrement les zones humides et tempérées des régions côtières du Pacifique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce croît dans une zone allant de l’État de l’Oregon jusqu’en Colombie-Britannique. Sa zone d'expansion s'étend à l'est jusque dans l'Alberta et le Montana. Une sous-espèce est également présente dans le Colorado. Elle apprécie tout particulièrement les zones humides et tempérées des régions côtières du Pacifique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbustes qui peuvent atteindre 2 mètres de haut. Les feuilles sont simples, obovées ou en forme d'ellipse, caduques, de 7 cm de long. Les fleurs blanches possèdent des corolles de 5 pétales. Le tronc est brun[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbustes qui peuvent atteindre 2 mètres de haut. Les feuilles sont simples, obovées ou en forme d'ellipse, caduques, de 7 cm de long. Les fleurs blanches possèdent des corolles de 5 pétales. Le tronc est brun.
 </t>
         </is>
       </c>
